--- a/data/trans_dic/P5_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de jardín en su vivienda</t>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,18%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 15,38</t>
+          <t>10,09; 15,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,22</t>
+          <t>10,16; 16,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,61</t>
+          <t>9,29; 13,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 14,61</t>
+          <t>9,44; 14,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 13,58</t>
+          <t>10,45; 13,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 14,51</t>
+          <t>10,37; 14,02</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 21,51</t>
+          <t>14,97; 21,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 26,51</t>
+          <t>15,7; 23,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 17,45</t>
+          <t>11,99; 17,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 18,51</t>
+          <t>12,28; 18,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 18,49</t>
+          <t>13,97; 18,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 20,71</t>
+          <t>14,83; 19,65</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>20,33%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,27; 30,54</t>
+          <t>15,61; 31,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 29,76</t>
+          <t>14,59; 30,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 24,27</t>
+          <t>13,2; 24,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 30,73</t>
+          <t>13,09; 26,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,8</t>
+          <t>15,96; 25,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 27,02</t>
+          <t>15,22; 25,38</t>
         </is>
       </c>
     </row>
@@ -846,17 +847,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,09</t>
+          <t>13,94; 18,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,62</t>
+          <t>14,3; 18,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,09</t>
+          <t>11,59; 15,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 16,24</t>
+          <t>11,99; 15,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,83</t>
+          <t>13,34; 15,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 17,3</t>
+          <t>13,78; 16,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>206158</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>210941</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>201535</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>210772</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>407693</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>421713</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>165415; 250137</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>167902; 264829</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>166343; 249684</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>170796; 259604</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>358634; 470555</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>359005; 485197</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>246898</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>263964</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>204716</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>211928</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>451614</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>475893</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>207636; 303562</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>215799; 321503</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>169043; 247467</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>170859; 263916</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>390658; 517414</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>410063; 543562</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>93194</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>91706</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>75863</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>78016</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>169057</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>169722</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65993; 131393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>61673; 129638</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>54388; 100162</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53898; 109586</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>133197; 214014</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>127074; 211827</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>546250</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>566611</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>482114</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>500717</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1028364</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1067327</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>480819; 621240</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>493232; 650026</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>418554; 545497</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>433149; 573192</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>942021; 1124152</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>973495; 1181679</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>